--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Colq-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Colq-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Colq</t>
+  </si>
+  <si>
+    <t>Musk</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Colq</t>
-  </si>
-  <si>
-    <t>Musk</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08110766666666668</v>
+        <v>0.0313</v>
       </c>
       <c r="H2">
-        <v>0.243323</v>
+        <v>0.0939</v>
       </c>
       <c r="I2">
-        <v>0.483901792932281</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="J2">
-        <v>0.512077833524143</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.047924</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N2">
-        <v>0.143772</v>
+        <v>0.334088</v>
       </c>
       <c r="O2">
-        <v>0.004523918624404262</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P2">
-        <v>0.005628995363396378</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q2">
-        <v>0.003887003817333334</v>
+        <v>0.003485651466666667</v>
       </c>
       <c r="R2">
-        <v>0.034983034356</v>
+        <v>0.0313708632</v>
       </c>
       <c r="S2">
-        <v>0.002189132333428961</v>
+        <v>0.001183352995730388</v>
       </c>
       <c r="T2">
-        <v>0.002882483750605464</v>
+        <v>0.001602676983323504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08110766666666668</v>
+        <v>0.0313</v>
       </c>
       <c r="H3">
-        <v>0.243323</v>
+        <v>0.0939</v>
       </c>
       <c r="I3">
-        <v>0.483901792932281</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="J3">
-        <v>0.512077833524143</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>12.362568</v>
       </c>
       <c r="O3">
-        <v>0.3889996078559396</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P3">
-        <v>0.4840221875724928</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q3">
-        <v>0.3342330148293334</v>
+        <v>0.1289827928</v>
       </c>
       <c r="R3">
-        <v>3.008097133464</v>
+        <v>1.1608451352</v>
       </c>
       <c r="S3">
-        <v>0.1882376076914434</v>
+        <v>0.04378870799825385</v>
       </c>
       <c r="T3">
-        <v>0.2478570331897385</v>
+        <v>0.0593053422702153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
@@ -661,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08110766666666668</v>
+        <v>0.0313</v>
       </c>
       <c r="H4">
-        <v>0.243323</v>
+        <v>0.0939</v>
       </c>
       <c r="I4">
-        <v>0.483901792932281</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="J4">
-        <v>0.512077833524143</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>6.2390875</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N4">
-        <v>12.478175</v>
+        <v>0.05761</v>
       </c>
       <c r="O4">
-        <v>0.5889559331553673</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P4">
-        <v>0.488548460191474</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q4">
-        <v>0.5060378292541667</v>
+        <v>0.0006010643333333334</v>
       </c>
       <c r="R4">
-        <v>3.036226975525</v>
+        <v>0.005409579</v>
       </c>
       <c r="S4">
-        <v>0.2849968320119869</v>
+        <v>0.0002040569134001451</v>
       </c>
       <c r="T4">
-        <v>0.2501748370664061</v>
+        <v>0.0002763649727295416</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,108 +726,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.08110766666666668</v>
+        <v>0.0313</v>
       </c>
       <c r="H5">
-        <v>0.243323</v>
+        <v>0.0939</v>
       </c>
       <c r="I5">
-        <v>0.483901792932281</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="J5">
-        <v>0.512077833524143</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1856033333333333</v>
+        <v>15.767896</v>
       </c>
       <c r="N5">
-        <v>0.55681</v>
+        <v>31.535792</v>
       </c>
       <c r="O5">
-        <v>0.01752054036428885</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P5">
-        <v>0.0218003568726368</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q5">
-        <v>0.01505385329222222</v>
+        <v>0.4935351448</v>
       </c>
       <c r="R5">
-        <v>0.13548467963</v>
+        <v>2.9612108688</v>
       </c>
       <c r="S5">
-        <v>0.008478220895421777</v>
+        <v>0.1675515460115168</v>
       </c>
       <c r="T5">
-        <v>0.01116347951739301</v>
+        <v>0.1512825602514233</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05318533333333333</v>
+        <v>0.0313</v>
       </c>
       <c r="H6">
-        <v>0.159556</v>
+        <v>0.0939</v>
       </c>
       <c r="I6">
-        <v>0.3173125206951378</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="J6">
-        <v>0.3357886052932857</v>
+        <v>0.2134634270541592</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.047924</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N6">
-        <v>0.143772</v>
+        <v>0.207723</v>
       </c>
       <c r="O6">
-        <v>0.004523918624404262</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P6">
-        <v>0.005628995363396378</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q6">
-        <v>0.002548853914666667</v>
+        <v>0.0021672433</v>
       </c>
       <c r="R6">
-        <v>0.022939685232</v>
+        <v>0.0195051897</v>
       </c>
       <c r="S6">
-        <v>0.001435496022129397</v>
+        <v>0.000735763135258086</v>
       </c>
       <c r="T6">
-        <v>0.001890152502277242</v>
+        <v>0.0009964825764676023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,40 +856,40 @@
         <v>0.159556</v>
       </c>
       <c r="I7">
-        <v>0.3173125206951378</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="J7">
-        <v>0.3357886052932857</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>4.120856</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N7">
-        <v>12.362568</v>
+        <v>0.334088</v>
       </c>
       <c r="O7">
-        <v>0.3889996078559396</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P7">
-        <v>0.4840221875724928</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q7">
-        <v>0.2191690999786667</v>
+        <v>0.005922860547555556</v>
       </c>
       <c r="R7">
-        <v>1.972521899808</v>
+        <v>0.053305744928</v>
       </c>
       <c r="S7">
-        <v>0.1234344461181883</v>
+        <v>0.0020107675248856</v>
       </c>
       <c r="T7">
-        <v>0.1625291352959725</v>
+        <v>0.002723287846125294</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,40 +918,40 @@
         <v>0.159556</v>
       </c>
       <c r="I8">
-        <v>0.3173125206951378</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="J8">
-        <v>0.3357886052932857</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.2390875</v>
+        <v>4.120856</v>
       </c>
       <c r="N8">
-        <v>12.478175</v>
+        <v>12.362568</v>
       </c>
       <c r="O8">
-        <v>0.5889559331553673</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P8">
-        <v>0.488548460191474</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q8">
-        <v>0.3318279483833333</v>
+        <v>0.2191690999786667</v>
       </c>
       <c r="R8">
-        <v>1.9909676903</v>
+        <v>1.972521899808</v>
       </c>
       <c r="S8">
-        <v>0.1868830917278867</v>
+        <v>0.07440629492406167</v>
       </c>
       <c r="T8">
-        <v>0.1640490060658774</v>
+        <v>0.1007723449549145</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,164 +980,164 @@
         <v>0.159556</v>
       </c>
       <c r="I9">
-        <v>0.3173125206951378</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="J9">
-        <v>0.3357886052932857</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1856033333333333</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N9">
-        <v>0.55681</v>
+        <v>0.05761</v>
       </c>
       <c r="O9">
-        <v>0.01752054036428885</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P9">
-        <v>0.0218003568726368</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q9">
-        <v>0.009871375151111111</v>
+        <v>0.001021335684444444</v>
       </c>
       <c r="R9">
-        <v>0.08884237636</v>
+        <v>0.009192021160000001</v>
       </c>
       <c r="S9">
-        <v>0.005559486826933404</v>
+        <v>0.0003467359411552028</v>
       </c>
       <c r="T9">
-        <v>0.007320311429158607</v>
+        <v>0.000469602658028059</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.0276675</v>
+        <v>0.05318533333333333</v>
       </c>
       <c r="H10">
-        <v>0.055335</v>
+        <v>0.159556</v>
       </c>
       <c r="I10">
-        <v>0.1650688943004223</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="J10">
-        <v>0.1164535490605428</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.047924</v>
+        <v>15.767896</v>
       </c>
       <c r="N10">
-        <v>0.143772</v>
+        <v>31.535792</v>
       </c>
       <c r="O10">
-        <v>0.004523918624404262</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P10">
-        <v>0.005628995363396378</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q10">
-        <v>0.00132593727</v>
+        <v>0.8386208047253334</v>
       </c>
       <c r="R10">
-        <v>0.007955623620000001</v>
+        <v>5.031724828352</v>
       </c>
       <c r="S10">
-        <v>0.0007467582452354989</v>
+        <v>0.2847055854676632</v>
       </c>
       <c r="T10">
-        <v>0.0006555164877128481</v>
+        <v>0.2570611308144419</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.0276675</v>
+        <v>0.05318533333333333</v>
       </c>
       <c r="H11">
-        <v>0.055335</v>
+        <v>0.159556</v>
       </c>
       <c r="I11">
-        <v>0.1650688943004223</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="J11">
-        <v>0.1164535490605428</v>
+        <v>0.3627196013530717</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>4.120856</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N11">
-        <v>12.362568</v>
+        <v>0.207723</v>
       </c>
       <c r="O11">
-        <v>0.3889996078559396</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P11">
-        <v>0.4840221875724928</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q11">
-        <v>0.11401378338</v>
+        <v>0.003682605665333334</v>
       </c>
       <c r="R11">
-        <v>0.68408270028</v>
+        <v>0.03314345098800001</v>
       </c>
       <c r="S11">
-        <v>0.06421173515207781</v>
+        <v>0.001250217495306061</v>
       </c>
       <c r="T11">
-        <v>0.05636610156686454</v>
+        <v>0.001693235079561925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0276675</v>
+        <v>0.062144</v>
       </c>
       <c r="H12">
-        <v>0.055335</v>
+        <v>0.186432</v>
       </c>
       <c r="I12">
-        <v>0.1650688943004223</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="J12">
-        <v>0.1164535490605428</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>6.2390875</v>
+        <v>0.1113626666666667</v>
       </c>
       <c r="N12">
-        <v>12.478175</v>
+        <v>0.334088</v>
       </c>
       <c r="O12">
-        <v>0.5889559331553673</v>
+        <v>0.005543586609007977</v>
       </c>
       <c r="P12">
-        <v>0.488548460191474</v>
+        <v>0.00750796989180202</v>
       </c>
       <c r="Q12">
-        <v>0.17261995340625</v>
+        <v>0.006920521557333333</v>
       </c>
       <c r="R12">
-        <v>0.690479813625</v>
+        <v>0.06228469401599999</v>
       </c>
       <c r="S12">
-        <v>0.0972183046776299</v>
+        <v>0.002349466088391988</v>
       </c>
       <c r="T12">
-        <v>0.05689320207736046</v>
+        <v>0.003182005062353222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,93 +1207,93 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0276675</v>
+        <v>0.062144</v>
       </c>
       <c r="H13">
-        <v>0.055335</v>
+        <v>0.186432</v>
       </c>
       <c r="I13">
-        <v>0.1650688943004223</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="J13">
-        <v>0.1164535490605428</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1856033333333333</v>
+        <v>4.120856</v>
       </c>
       <c r="N13">
-        <v>0.55681</v>
+        <v>12.362568</v>
       </c>
       <c r="O13">
-        <v>0.01752054036428885</v>
+        <v>0.2051344748022992</v>
       </c>
       <c r="P13">
-        <v>0.0218003568726368</v>
+        <v>0.2778243706129975</v>
       </c>
       <c r="Q13">
-        <v>0.005135180225000001</v>
+        <v>0.256086475264</v>
       </c>
       <c r="R13">
-        <v>0.03081108135</v>
+        <v>2.304778277376</v>
       </c>
       <c r="S13">
-        <v>0.002892096225479079</v>
+        <v>0.08693947187998362</v>
       </c>
       <c r="T13">
-        <v>0.00253872892860495</v>
+        <v>0.1177466833878677</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.005651333333333334</v>
+        <v>0.062144</v>
       </c>
       <c r="H14">
-        <v>0.016954</v>
+        <v>0.186432</v>
       </c>
       <c r="I14">
-        <v>0.03371679207215879</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="J14">
-        <v>0.03568001212202842</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1299,214 +1302,152 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.047924</v>
+        <v>0.01920333333333333</v>
       </c>
       <c r="N14">
-        <v>0.143772</v>
+        <v>0.05761</v>
       </c>
       <c r="O14">
-        <v>0.004523918624404262</v>
+        <v>0.0009559338394223962</v>
       </c>
       <c r="P14">
-        <v>0.005628995363396378</v>
+        <v>0.00129467130057564</v>
       </c>
       <c r="Q14">
-        <v>0.0002708344986666667</v>
+        <v>0.001193371946666667</v>
       </c>
       <c r="R14">
-        <v>0.002437510488</v>
+        <v>0.01074034752</v>
       </c>
       <c r="S14">
-        <v>0.0001525320236104051</v>
+        <v>0.0004051409848670483</v>
       </c>
       <c r="T14">
-        <v>0.0002008426228008245</v>
+        <v>0.0005487036698180394</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.062144</v>
+      </c>
+      <c r="H15">
+        <v>0.186432</v>
+      </c>
+      <c r="I15">
+        <v>0.423816971592769</v>
+      </c>
+      <c r="J15">
+        <v>0.423816971592769</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.005651333333333334</v>
-      </c>
-      <c r="H15">
-        <v>0.016954</v>
-      </c>
-      <c r="I15">
-        <v>0.03371679207215879</v>
-      </c>
-      <c r="J15">
-        <v>0.03568001212202842</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.120856</v>
+        <v>15.767896</v>
       </c>
       <c r="N15">
-        <v>12.362568</v>
+        <v>31.535792</v>
       </c>
       <c r="O15">
-        <v>0.3889996078559396</v>
+        <v>0.7849192169532917</v>
       </c>
       <c r="P15">
-        <v>0.4840221875724928</v>
+        <v>0.7087048228315025</v>
       </c>
       <c r="Q15">
-        <v>0.02328833087466667</v>
+        <v>0.979880129024</v>
       </c>
       <c r="R15">
-        <v>0.209594977872</v>
+        <v>5.879280774144</v>
       </c>
       <c r="S15">
-        <v>0.01311581889423002</v>
+        <v>0.3326620854741117</v>
       </c>
       <c r="T15">
-        <v>0.01726991751991725</v>
+        <v>0.3003611317656373</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.005651333333333334</v>
+        <v>0.062144</v>
       </c>
       <c r="H16">
-        <v>0.016954</v>
+        <v>0.186432</v>
       </c>
       <c r="I16">
-        <v>0.03371679207215879</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="J16">
-        <v>0.03568001212202842</v>
+        <v>0.423816971592769</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>6.2390875</v>
+        <v>0.06924100000000001</v>
       </c>
       <c r="N16">
-        <v>12.478175</v>
+        <v>0.207723</v>
       </c>
       <c r="O16">
-        <v>0.5889559331553673</v>
+        <v>0.003446787795978796</v>
       </c>
       <c r="P16">
-        <v>0.488548460191474</v>
+        <v>0.004668165363122264</v>
       </c>
       <c r="Q16">
-        <v>0.03525916315833334</v>
+        <v>0.004302912704000001</v>
       </c>
       <c r="R16">
-        <v>0.21155497895</v>
+        <v>0.038726214336</v>
       </c>
       <c r="S16">
-        <v>0.01985770473786377</v>
+        <v>0.001460807165414649</v>
       </c>
       <c r="T16">
-        <v>0.01743141498183011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.005651333333333334</v>
-      </c>
-      <c r="H17">
-        <v>0.016954</v>
-      </c>
-      <c r="I17">
-        <v>0.03371679207215879</v>
-      </c>
-      <c r="J17">
-        <v>0.03568001212202842</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.1856033333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.55681</v>
-      </c>
-      <c r="O17">
-        <v>0.01752054036428885</v>
-      </c>
-      <c r="P17">
-        <v>0.0218003568726368</v>
-      </c>
-      <c r="Q17">
-        <v>0.001048906304444445</v>
-      </c>
-      <c r="R17">
-        <v>0.00944015674</v>
-      </c>
-      <c r="S17">
-        <v>0.0005907364164545925</v>
-      </c>
-      <c r="T17">
-        <v>0.0007778369974802264</v>
+        <v>0.001978447707092737</v>
       </c>
     </row>
   </sheetData>
